--- a/pred_ohlcv/54_21/2019-10-18 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 MITH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>161377.2521</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>161377.2521</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>161377.2521</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>161324.2521</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>163324.2521</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>163424.2521</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>163424.2521</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>163424.2521</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>163424.2521</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>160424.2521</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>40097.53189999999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>40097.53189999999</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>9866.869499999986</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>58453.44469999999</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,7 +912,7 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>45102.53889999999</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-42155.81260000002</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>560499.8561</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>560511.8561</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>638966.4117562091</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>534530.0302562091</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>533530.0302562091</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>533542.0302562091</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>533542.0302562091</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>533542.0302562091</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-18 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 MITH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>161377.2521</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>161377.2521</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>161377.2521</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>161324.2521</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>163324.2521</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>163424.2521</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>163424.2521</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>163424.2521</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>163424.2521</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>160424.2521</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>40097.53189999999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -912,7 +912,7 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-42155.81260000002</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>88756.90189999998</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>56406.90189999998</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>56406.90189999998</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-4064.859900000018</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>565986.334</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>565986.334</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>555986.334</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>560328.334</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>560328.334</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>560594.1958</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>560499.8561</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>560511.8561</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>560511.8561</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>560511.8561</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>560511.8561</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>638966.4117562091</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>534530.0302562091</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>533530.0302562091</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>533542.0302562091</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>533542.0302562091</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>533542.0302562091</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
